--- a/raw_data/20200818_saline/20200818_Sensor0_Test_18.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_18.xlsx
@@ -1,945 +1,1361 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84E5288-64D4-4BF0-8695-2AE0DA912885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>15302.852729</v>
       </c>
       <c r="B2" s="1">
-        <v>4.250792</v>
+        <v>4.2507919999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>901.027000</v>
+        <v>901.02700000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.079000</v>
+        <v>-196.07900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>15313.598540</v>
+        <v>15313.598540000001</v>
       </c>
       <c r="G2" s="1">
-        <v>4.253777</v>
+        <v>4.2537770000000004</v>
       </c>
       <c r="H2" s="1">
-        <v>918.240000</v>
+        <v>918.24</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.188000</v>
+        <v>-166.18799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>15324.106781</v>
       </c>
       <c r="L2" s="1">
-        <v>4.256696</v>
+        <v>4.2566959999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>939.819000</v>
+        <v>939.81899999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.362000</v>
+        <v>-118.36199999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>15334.626431</v>
+        <v>15334.626431000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.259618</v>
+        <v>4.2596179999999997</v>
       </c>
       <c r="R2" s="1">
-        <v>946.139000</v>
+        <v>946.13900000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.102000</v>
+        <v>-103.102</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>15345.171408</v>
       </c>
       <c r="V2" s="1">
-        <v>4.262548</v>
+        <v>4.2625479999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>952.337000</v>
+        <v>952.33699999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.547300</v>
+        <v>-89.547300000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>15355.632995</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.265454</v>
+        <v>4.2654540000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.356000</v>
+        <v>959.35599999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.447800</v>
+        <v>-80.447800000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>15366.208693</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.268391</v>
+        <v>4.2683910000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.299000</v>
+        <v>964.29899999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.050800</v>
+        <v>-80.050799999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>15376.955512</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.271377</v>
+        <v>4.2713770000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.211000</v>
+        <v>972.21100000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.073300</v>
+        <v>-88.073300000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>15387.492026</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.274303</v>
+        <v>4.2743029999999997</v>
       </c>
       <c r="AQ2" s="1">
-        <v>981.441000</v>
+        <v>981.44100000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.297000</v>
+        <v>-103.297</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>15398.472955</v>
+        <v>15398.472954999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.277354</v>
+        <v>4.2773539999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>992.893000</v>
+        <v>992.89300000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.123000</v>
+        <v>-125.123</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>15409.687501</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.280469</v>
+        <v>4.2804690000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1002.580000</v>
+        <v>1002.58</v>
       </c>
       <c r="BB2" s="1">
-        <v>-144.078000</v>
+        <v>-144.078</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>15420.951644</v>
+        <v>15420.951644000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.283598</v>
+        <v>4.2835979999999996</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.240000</v>
+        <v>1048.24</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.836000</v>
+        <v>-229.83600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>15431.990111</v>
+        <v>15431.990110999999</v>
       </c>
       <c r="BJ2" s="1">
         <v>4.286664</v>
       </c>
       <c r="BK2" s="1">
-        <v>1128.160000</v>
+        <v>1128.1600000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-367.398000</v>
+        <v>-367.39800000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>15442.867871</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.289686</v>
+        <v>4.2896859999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.449000</v>
+        <v>-580.44899999999996</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>15453.196562</v>
+        <v>15453.196561999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.292555</v>
+        <v>4.2925550000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1409.940000</v>
+        <v>1409.94</v>
       </c>
       <c r="BV2" s="1">
-        <v>-808.191000</v>
+        <v>-808.19100000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>15463.879925</v>
+        <v>15463.879924999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.295522</v>
+        <v>4.2955220000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1573.690000</v>
+        <v>1573.69</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1046.260000</v>
+        <v>-1046.26</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>15474.856890</v>
+        <v>15474.856889999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.298571</v>
+        <v>4.2985709999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1988.620000</v>
+        <v>1988.62</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1601.720000</v>
+        <v>-1601.72</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>15303.595719</v>
+        <v>15303.595719000001</v>
       </c>
       <c r="B3" s="1">
-        <v>4.250999</v>
+        <v>4.2509990000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>901.008000</v>
+        <v>901.00800000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.145000</v>
+        <v>-196.14500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>15314.009225</v>
       </c>
       <c r="G3" s="1">
-        <v>4.253891</v>
+        <v>4.2538910000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>917.850000</v>
+        <v>917.85</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.075000</v>
+        <v>-166.07499999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>15324.492176</v>
       </c>
       <c r="L3" s="1">
-        <v>4.256803</v>
+        <v>4.2568029999999997</v>
       </c>
       <c r="M3" s="1">
-        <v>939.952000</v>
+        <v>939.952</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.558000</v>
+        <v>-118.55800000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>15334.976110</v>
+        <v>15334.97611</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.259716</v>
+        <v>4.2597160000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>946.150000</v>
+        <v>946.15</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.098000</v>
+        <v>-103.098</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>15345.547872</v>
+        <v>15345.547871999999</v>
       </c>
       <c r="V3" s="1">
-        <v>4.262652</v>
+        <v>4.2626520000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>952.304000</v>
+        <v>952.30399999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.554600</v>
+        <v>-89.554599999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>15356.371539</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.265659</v>
+        <v>4.2656590000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.216000</v>
+        <v>959.21600000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.478000</v>
+        <v>-80.477999999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>15366.925445</v>
+        <v>15366.925445000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.268590</v>
+        <v>4.2685899999999997</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.278000</v>
+        <v>964.27800000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.018400</v>
+        <v>-80.0184</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>15377.289320</v>
+        <v>15377.28932</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.271469</v>
+        <v>4.2714689999999997</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.202000</v>
+        <v>972.202</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.075900</v>
+        <v>-88.075900000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>15387.852120</v>
+        <v>15387.85212</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.274403</v>
+        <v>4.2744030000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>981.454000</v>
+        <v>981.45399999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.265000</v>
+        <v>-103.265</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>15398.893065</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.277470</v>
+        <v>4.2774700000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>992.910000</v>
+        <v>992.91</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.112000</v>
+        <v>-125.11199999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>15410.360108</v>
+        <v>15410.360108000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.280656</v>
+        <v>4.2806559999999996</v>
       </c>
       <c r="BA3" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB3" s="1">
-        <v>-144.085000</v>
+        <v>-144.08500000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>15421.383660</v>
+        <v>15421.38366</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.283718</v>
+        <v>4.2837180000000004</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.230000</v>
+        <v>1048.23</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.825000</v>
+        <v>-229.82499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>15432.101710</v>
+        <v>15432.101710000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.286695</v>
+        <v>4.2866949999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1128.190000</v>
+        <v>1128.19</v>
       </c>
       <c r="BL3" s="1">
-        <v>-367.402000</v>
+        <v>-367.40199999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>15443.306334</v>
+        <v>15443.306334000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.289807</v>
+        <v>4.2898069999999997</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.630000</v>
+        <v>1260.6300000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.423000</v>
+        <v>-580.423</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>15453.631586</v>
@@ -948,150 +1364,150 @@
         <v>4.292675</v>
       </c>
       <c r="BU3" s="1">
-        <v>1410.100000</v>
+        <v>1410.1</v>
       </c>
       <c r="BV3" s="1">
-        <v>-808.280000</v>
+        <v>-808.28</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>15464.342163</v>
+        <v>15464.342162999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.295651</v>
+        <v>4.2956510000000003</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1573.730000</v>
+        <v>1573.73</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1045.890000</v>
+        <v>-1045.8900000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>15475.449078</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.298736</v>
+        <v>4.2987359999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1990.400000</v>
+        <v>1990.4</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1600.800000</v>
+        <v>-1600.8</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>15303.937466</v>
+        <v>15303.937465999999</v>
       </c>
       <c r="B4" s="1">
-        <v>4.251094</v>
+        <v>4.2510940000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>901.076000</v>
+        <v>901.07600000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.030000</v>
+        <v>-196.03</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>15314.356923</v>
+        <v>15314.356922999999</v>
       </c>
       <c r="G4" s="1">
-        <v>4.253988</v>
+        <v>4.2539879999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>918.117000</v>
+        <v>918.11699999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.156000</v>
+        <v>-166.15600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>15324.836396</v>
+        <v>15324.836396000001</v>
       </c>
       <c r="L4" s="1">
-        <v>4.256899</v>
+        <v>4.2568989999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>939.669000</v>
+        <v>939.66899999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.365000</v>
+        <v>-118.36499999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>15335.325294</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.259813</v>
+        <v>4.2598130000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>946.148000</v>
+        <v>946.14800000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.140000</v>
+        <v>-103.14</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>15346.234832</v>
       </c>
       <c r="V4" s="1">
-        <v>4.262843</v>
+        <v>4.2628430000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>952.374000</v>
+        <v>952.37400000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.541300</v>
+        <v>-89.541300000000007</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>15356.721745</v>
+        <v>15356.721745000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.265756</v>
+        <v>4.2657559999999997</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.318000</v>
+        <v>959.31799999999998</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.455300</v>
+        <v>-80.455299999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>15367.268675</v>
+        <v>15367.268674999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.268686</v>
+        <v>4.2686859999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.314000</v>
+        <v>964.31399999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.074200</v>
+        <v>-80.074200000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>15377.638534</v>
@@ -1100,73 +1516,73 @@
         <v>4.271566</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.198000</v>
+        <v>972.19799999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.076400</v>
+        <v>-88.076400000000007</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>15388.516791</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.274588</v>
+        <v>4.2745879999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>981.447000</v>
+        <v>981.447</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.259000</v>
+        <v>-103.259</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>15399.569609</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.277658</v>
+        <v>4.2776579999999997</v>
       </c>
       <c r="AV4" s="1">
-        <v>992.927000</v>
+        <v>992.92700000000002</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.108000</v>
+        <v>-125.108</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>15410.774731</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.280771</v>
+        <v>4.2807709999999997</v>
       </c>
       <c r="BA4" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB4" s="1">
-        <v>-144.069000</v>
+        <v>-144.06899999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>15421.747724</v>
+        <v>15421.747724000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.283819</v>
+        <v>4.2838190000000003</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.220000</v>
+        <v>1048.22</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.837000</v>
+        <v>-229.83699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>15432.469245</v>
@@ -1175,225 +1591,225 @@
         <v>4.286797</v>
       </c>
       <c r="BK4" s="1">
-        <v>1128.190000</v>
+        <v>1128.19</v>
       </c>
       <c r="BL4" s="1">
-        <v>-367.437000</v>
+        <v>-367.43700000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>15443.707599</v>
+        <v>15443.707598999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.289919</v>
+        <v>4.2899190000000003</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.600000</v>
+        <v>1260.5999999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.505000</v>
+        <v>-580.505</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>15454.048193</v>
+        <v>15454.048193000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.292791</v>
+        <v>4.2927910000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1409.980000</v>
+        <v>1409.98</v>
       </c>
       <c r="BV4" s="1">
-        <v>-808.515000</v>
+        <v>-808.51499999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>15464.772960</v>
+        <v>15464.77296</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.295770</v>
+        <v>4.2957700000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1573.710000</v>
+        <v>1573.71</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1046.180000</v>
+        <v>-1046.18</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>15475.989275</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.298886</v>
+        <v>4.2988860000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>1988.740000</v>
+        <v>1988.74</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1600.440000</v>
+        <v>-1600.44</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>15304.285656</v>
       </c>
       <c r="B5" s="1">
-        <v>4.251190</v>
+        <v>4.2511900000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>901.090000</v>
+        <v>901.09</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.009000</v>
+        <v>-196.00899999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>15314.699656</v>
+        <v>15314.699656000001</v>
       </c>
       <c r="G5" s="1">
-        <v>4.254083</v>
+        <v>4.2540829999999996</v>
       </c>
       <c r="H5" s="1">
-        <v>917.897000</v>
+        <v>917.89700000000005</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.972000</v>
+        <v>-165.97200000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>15325.525339</v>
       </c>
       <c r="L5" s="1">
-        <v>4.257090</v>
+        <v>4.2570899999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>939.715000</v>
+        <v>939.71500000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.382000</v>
+        <v>-118.38200000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>15336.020189</v>
+        <v>15336.020189000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.260006</v>
+        <v>4.2600059999999997</v>
       </c>
       <c r="R5" s="1">
-        <v>946.119000</v>
+        <v>946.11900000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.130000</v>
+        <v>-103.13</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>15346.578558</v>
+        <v>15346.578557999999</v>
       </c>
       <c r="V5" s="1">
-        <v>4.262938</v>
+        <v>4.2629380000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>952.302000</v>
+        <v>952.30200000000002</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.557300</v>
+        <v>-89.557299999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>15357.068913</v>
+        <v>15357.068912999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.265852</v>
+        <v>4.2658519999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.299000</v>
+        <v>959.29899999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.494700</v>
+        <v>-80.494699999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>15367.612867</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.268781</v>
+        <v>4.2687809999999997</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.268000</v>
+        <v>964.26800000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.033900</v>
+        <v>-80.033900000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>15378.304161</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.271751</v>
+        <v>4.2717510000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.193000</v>
+        <v>972.19299999999998</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.088100</v>
+        <v>-88.088099999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>15388.959687</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.274711</v>
+        <v>4.2747109999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>981.431000</v>
+        <v>981.43100000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.274000</v>
+        <v>-103.274</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>15400.018025</v>
+        <v>15400.018024999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.277783</v>
+        <v>4.2777830000000003</v>
       </c>
       <c r="AV5" s="1">
-        <v>992.899000</v>
+        <v>992.899</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.117000</v>
+        <v>-125.117</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>15411.148218</v>
@@ -1402,43 +1818,43 @@
         <v>4.280875</v>
       </c>
       <c r="BA5" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB5" s="1">
-        <v>-144.094000</v>
+        <v>-144.09399999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>15422.105376</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.283918</v>
+        <v>4.2839179999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.240000</v>
+        <v>1048.24</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.822000</v>
+        <v>-229.822</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>15432.847234</v>
+        <v>15432.847234000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.286902</v>
+        <v>4.2869020000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1128.220000</v>
+        <v>1128.22</v>
       </c>
       <c r="BL5" s="1">
-        <v>-367.466000</v>
+        <v>-367.46600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>15444.136638</v>
@@ -1447,150 +1863,150 @@
         <v>4.290038</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.600000</v>
+        <v>1260.5999999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.444000</v>
+        <v>-580.44399999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>15454.461858</v>
+        <v>15454.461858000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.292906</v>
+        <v>4.2929060000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>1409.900000</v>
+        <v>1409.9</v>
       </c>
       <c r="BV5" s="1">
-        <v>-808.644000</v>
+        <v>-808.64400000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>15465.202723</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.295890</v>
+        <v>4.29589</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1573.770000</v>
+        <v>1573.77</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1046.240000</v>
+        <v>-1046.24</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>15476.530851</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.299036</v>
+        <v>4.2990360000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1989.070000</v>
+        <v>1989.07</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1602.010000</v>
+        <v>-1602.01</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>15304.969638</v>
       </c>
       <c r="B6" s="1">
-        <v>4.251380</v>
+        <v>4.2513800000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>901.381000</v>
+        <v>901.38099999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.191000</v>
+        <v>-196.191</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>15315.388600</v>
+        <v>15315.3886</v>
       </c>
       <c r="G6" s="1">
-        <v>4.254275</v>
+        <v>4.2542749999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>918.139000</v>
+        <v>918.13900000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.349000</v>
+        <v>-166.34899999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>15325.876506</v>
+        <v>15325.876506000001</v>
       </c>
       <c r="L6" s="1">
-        <v>4.257188</v>
+        <v>4.2571880000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>939.832000</v>
+        <v>939.83199999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.257000</v>
+        <v>-118.25700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>15336.367656</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.260102</v>
+        <v>4.2601019999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>946.119000</v>
+        <v>946.11900000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.106000</v>
+        <v>-103.10599999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>15346.923774</v>
+        <v>15346.923774000001</v>
       </c>
       <c r="V6" s="1">
-        <v>4.263034</v>
+        <v>4.2630340000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>952.341000</v>
+        <v>952.34100000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.527800</v>
+        <v>-89.527799999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>15357.726608</v>
+        <v>15357.726608000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.266035</v>
+        <v>4.2660349999999996</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.328000</v>
+        <v>959.32799999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.259100</v>
+        <v>-80.259100000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>15368.281971</v>
@@ -1599,225 +2015,225 @@
         <v>4.268967</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.250000</v>
+        <v>964.25</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.041600</v>
+        <v>-80.041600000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>15378.686548</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.271857</v>
+        <v>4.2718569999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.211000</v>
+        <v>972.21100000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.087900</v>
+        <v>-88.087900000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>15389.319782</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.274811</v>
+        <v>4.2748109999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>981.407000</v>
+        <v>981.40700000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.296000</v>
+        <v>-103.29600000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>15400.381591</v>
+        <v>15400.381590999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.277884</v>
+        <v>4.2778840000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>992.904000</v>
+        <v>992.904</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.084000</v>
+        <v>-125.084</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>15411.531625</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.280981</v>
+        <v>4.2809809999999997</v>
       </c>
       <c r="BA6" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB6" s="1">
-        <v>-144.103000</v>
+        <v>-144.10300000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>15422.528427</v>
+        <v>15422.528426999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.284036</v>
+        <v>4.2840360000000004</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.200000</v>
+        <v>1048.2</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.817000</v>
+        <v>-229.81700000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>15433.267805</v>
+        <v>15433.267804999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.287019</v>
+        <v>4.2870189999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1128.220000</v>
+        <v>1128.22</v>
       </c>
       <c r="BL6" s="1">
-        <v>-367.421000</v>
+        <v>-367.42099999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>15444.523517</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.290145</v>
+        <v>4.2901449999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.600000</v>
+        <v>1260.5999999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.426000</v>
+        <v>-580.42600000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>15454.875520</v>
+        <v>15454.87552</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.293021</v>
+        <v>4.2930210000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>1409.710000</v>
+        <v>1409.71</v>
       </c>
       <c r="BV6" s="1">
-        <v>-808.722000</v>
+        <v>-808.72199999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>15465.634739</v>
+        <v>15465.634738999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.296010</v>
+        <v>4.2960099999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1573.720000</v>
+        <v>1573.72</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1046.110000</v>
+        <v>-1046.1099999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>15477.070498</v>
+        <v>15477.070497999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.299186</v>
+        <v>4.2991859999999997</v>
       </c>
       <c r="CE6" s="1">
-        <v>1990.110000</v>
+        <v>1990.11</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1600.230000</v>
+        <v>-1600.23</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>15305.320466</v>
+        <v>15305.320465999999</v>
       </c>
       <c r="B7" s="1">
-        <v>4.251478</v>
+        <v>4.2514779999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>901.110000</v>
+        <v>901.11</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.042000</v>
+        <v>-196.042</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>15315.735811</v>
       </c>
       <c r="G7" s="1">
-        <v>4.254371</v>
+        <v>4.2543709999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>917.959000</v>
+        <v>917.95899999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.885000</v>
+        <v>-165.88499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>15326.220266</v>
       </c>
       <c r="L7" s="1">
-        <v>4.257283</v>
+        <v>4.2572830000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>940.101000</v>
+        <v>940.101</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.343000</v>
+        <v>-118.343</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>15337.032060</v>
+        <v>15337.03206</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.260287</v>
+        <v>4.2602869999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>946.157000</v>
+        <v>946.15700000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.084000</v>
+        <v>-103.084</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>15347.582429</v>
@@ -1826,43 +2242,43 @@
         <v>4.263217</v>
       </c>
       <c r="W7" s="1">
-        <v>952.385000</v>
+        <v>952.38499999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.578300</v>
+        <v>-89.578299999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>15358.115967</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.266143</v>
+        <v>4.2661429999999996</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.306000</v>
+        <v>959.30600000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.312500</v>
+        <v>-80.3125</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>15368.641607</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.269067</v>
+        <v>4.2690669999999997</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.255000</v>
+        <v>964.255</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.019800</v>
+        <v>-80.019800000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>15379.033748</v>
@@ -1871,270 +2287,270 @@
         <v>4.271954</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.186000</v>
+        <v>972.18600000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.103200</v>
+        <v>-88.103200000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>15389.684870</v>
+        <v>15389.684869999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.274912</v>
+        <v>4.2749119999999996</v>
       </c>
       <c r="AQ7" s="1">
-        <v>981.451000</v>
+        <v>981.45100000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.302000</v>
+        <v>-103.30200000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>15400.749591</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.277986</v>
+        <v>4.2779860000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>992.872000</v>
+        <v>992.87199999999996</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.118000</v>
+        <v>-125.11799999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>15411.954713</v>
+        <v>15411.954712999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.281099</v>
+        <v>4.2810990000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1002.580000</v>
+        <v>1002.58</v>
       </c>
       <c r="BB7" s="1">
-        <v>-144.089000</v>
+        <v>-144.089</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>15422.833002</v>
+        <v>15422.833001999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.284120</v>
+        <v>4.2841199999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.200000</v>
+        <v>1048.2</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.832000</v>
+        <v>-229.83199999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>15433.597644</v>
+        <v>15433.597643999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.287110</v>
+        <v>4.2871100000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1128.200000</v>
+        <v>1128.2</v>
       </c>
       <c r="BL7" s="1">
-        <v>-367.446000</v>
+        <v>-367.44600000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>15444.945153</v>
+        <v>15444.945153000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.290263</v>
+        <v>4.2902630000000004</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.660000</v>
+        <v>1260.6600000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.502000</v>
+        <v>-580.50199999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>15455.288687</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.293136</v>
+        <v>4.2931359999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>1409.570000</v>
+        <v>1409.57</v>
       </c>
       <c r="BV7" s="1">
-        <v>-808.694000</v>
+        <v>-808.69399999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>15466.053895</v>
+        <v>15466.053894999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.296126</v>
+        <v>4.2961260000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1573.810000</v>
+        <v>1573.81</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1046.160000</v>
+        <v>-1046.1600000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>15477.609650</v>
+        <v>15477.60965</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.299336</v>
+        <v>4.2993360000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1988.200000</v>
+        <v>1988.2</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1600.990000</v>
+        <v>-1600.99</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>15305.662086</v>
       </c>
       <c r="B8" s="1">
-        <v>4.251573</v>
+        <v>4.2515729999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>901.176000</v>
+        <v>901.17600000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.247000</v>
+        <v>-196.24700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>15316.078039</v>
       </c>
       <c r="G8" s="1">
-        <v>4.254466</v>
+        <v>4.2544659999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>918.073000</v>
+        <v>918.07299999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.114000</v>
+        <v>-166.114</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>15326.868023</v>
+        <v>15326.868023000001</v>
       </c>
       <c r="L8" s="1">
-        <v>4.257463</v>
+        <v>4.2574630000000004</v>
       </c>
       <c r="M8" s="1">
-        <v>939.798000</v>
+        <v>939.798</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.034000</v>
+        <v>-118.03400000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>15337.415436</v>
+        <v>15337.415435999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.260393</v>
+        <v>4.2603929999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>946.158000</v>
+        <v>946.15800000000002</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.124000</v>
+        <v>-103.124</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>15347.950461</v>
       </c>
       <c r="V8" s="1">
-        <v>4.263320</v>
+        <v>4.2633200000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>952.300000</v>
+        <v>952.3</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.464200</v>
+        <v>-89.464200000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>15358.462671</v>
+        <v>15358.462670999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.266240</v>
+        <v>4.2662399999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.423000</v>
+        <v>959.423</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.444000</v>
+        <v>-80.444000000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>15368.986324</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.269163</v>
+        <v>4.2691629999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.349000</v>
+        <v>964.34900000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.142800</v>
+        <v>-80.142799999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>15379.380614</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.272050</v>
+        <v>4.2720500000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.207000</v>
+        <v>972.20699999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.058300</v>
+        <v>-88.058300000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>15390.105942</v>
@@ -2143,58 +2559,58 @@
         <v>4.275029</v>
       </c>
       <c r="AQ8" s="1">
-        <v>981.411000</v>
+        <v>981.41099999999994</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.293000</v>
+        <v>-103.29300000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>15401.174168</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.278104</v>
+        <v>4.2781039999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>992.894000</v>
+        <v>992.89400000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.103000</v>
+        <v>-125.10299999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>15412.248842</v>
+        <v>15412.248842000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.281180</v>
+        <v>4.28118</v>
       </c>
       <c r="BA8" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB8" s="1">
-        <v>-144.082000</v>
+        <v>-144.08199999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>15423.190585</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.284220</v>
+        <v>4.2842200000000004</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.210000</v>
+        <v>1048.21</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.822000</v>
+        <v>-229.822</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>15434.001424</v>
@@ -2203,195 +2619,195 @@
         <v>4.287223</v>
       </c>
       <c r="BK8" s="1">
-        <v>1128.220000</v>
+        <v>1128.22</v>
       </c>
       <c r="BL8" s="1">
-        <v>-367.430000</v>
+        <v>-367.43</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>15445.343404</v>
+        <v>15445.343403999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.290373</v>
+        <v>4.2903729999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.630000</v>
+        <v>1260.6300000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.465000</v>
+        <v>-580.46500000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>15455.731614</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.293259</v>
+        <v>4.2932589999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1409.370000</v>
+        <v>1409.37</v>
       </c>
       <c r="BV8" s="1">
-        <v>-808.567000</v>
+        <v>-808.56700000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>15466.476448</v>
+        <v>15466.476447999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.296243</v>
+        <v>4.2962429999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1573.680000</v>
+        <v>1573.68</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1046.220000</v>
+        <v>-1046.22</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>15478.148801</v>
+        <v>15478.148800999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.299486</v>
+        <v>4.2994859999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1990.050000</v>
+        <v>1990.05</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1601.800000</v>
+        <v>-1601.8</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>15306.312340</v>
+        <v>15306.31234</v>
       </c>
       <c r="B9" s="1">
-        <v>4.251753</v>
+        <v>4.2517529999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>901.463000</v>
+        <v>901.46299999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.233000</v>
+        <v>-196.233</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>15316.731302</v>
       </c>
       <c r="G9" s="1">
-        <v>4.254648</v>
+        <v>4.2546480000000004</v>
       </c>
       <c r="H9" s="1">
-        <v>917.750000</v>
+        <v>917.75</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.406000</v>
+        <v>-166.40600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>15327.257896</v>
+        <v>15327.257895999999</v>
       </c>
       <c r="L9" s="1">
-        <v>4.257572</v>
+        <v>4.2575719999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>939.843000</v>
+        <v>939.84299999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.166000</v>
+        <v>-118.166</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>15337.765610</v>
+        <v>15337.76561</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.260490</v>
+        <v>4.2604899999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>946.143000</v>
+        <v>946.14300000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.142000</v>
+        <v>-103.142</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>15348.296669</v>
+        <v>15348.296668999999</v>
       </c>
       <c r="V9" s="1">
-        <v>4.263416</v>
+        <v>4.2634160000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>952.313000</v>
+        <v>952.31299999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.510400</v>
+        <v>-89.510400000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>15358.811391</v>
+        <v>15358.811390999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.266336</v>
+        <v>4.2663359999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.388000</v>
+        <v>959.38800000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.232400</v>
+        <v>-80.232399999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>15369.583505</v>
+        <v>15369.583505000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.269329</v>
+        <v>4.2693289999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.252000</v>
+        <v>964.25199999999995</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.048400</v>
+        <v>-80.048400000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>15379.789655</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.272164</v>
+        <v>4.2721640000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.200000</v>
+        <v>972.2</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.101400</v>
+        <v>-88.101399999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>15390.402086</v>
@@ -2400,315 +2816,315 @@
         <v>4.275112</v>
       </c>
       <c r="AQ9" s="1">
-        <v>981.436000</v>
+        <v>981.43600000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.297000</v>
+        <v>-103.297</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>15401.475734</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.278188</v>
+        <v>4.2781880000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>992.919000</v>
+        <v>992.91899999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.110000</v>
+        <v>-125.11</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>15412.606470</v>
+        <v>15412.606470000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.281280</v>
+        <v>4.2812799999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1002.580000</v>
+        <v>1002.58</v>
       </c>
       <c r="BB9" s="1">
-        <v>-144.107000</v>
+        <v>-144.107</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>15423.553161</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.284320</v>
+        <v>4.2843200000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.220000</v>
+        <v>1048.22</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.826000</v>
+        <v>-229.82599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>15434.379339</v>
+        <v>15434.379338999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.287328</v>
+        <v>4.2873279999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1128.200000</v>
+        <v>1128.2</v>
       </c>
       <c r="BL9" s="1">
-        <v>-367.448000</v>
+        <v>-367.44799999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>15445.765500</v>
+        <v>15445.7655</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.290490</v>
+        <v>4.2904900000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.600000</v>
+        <v>1260.5999999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.507000</v>
+        <v>-580.50699999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>15456.157678</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.293377</v>
+        <v>4.2933770000000004</v>
       </c>
       <c r="BU9" s="1">
-        <v>1409.320000</v>
+        <v>1409.32</v>
       </c>
       <c r="BV9" s="1">
-        <v>-808.527000</v>
+        <v>-808.52700000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>15466.930287</v>
+        <v>15466.930286999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.296370</v>
+        <v>4.2963699999999996</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1573.820000</v>
+        <v>1573.82</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1046.180000</v>
+        <v>-1046.18</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>15478.690432</v>
+        <v>15478.690431999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.299636</v>
+        <v>4.2996359999999996</v>
       </c>
       <c r="CE9" s="1">
-        <v>1989.470000</v>
+        <v>1989.47</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1600.020000</v>
+        <v>-1600.02</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>15306.683843</v>
+        <v>15306.683843000001</v>
       </c>
       <c r="B10" s="1">
-        <v>4.251857</v>
+        <v>4.2518570000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>901.273000</v>
+        <v>901.27300000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.220000</v>
+        <v>-196.22</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>15317.116701</v>
+        <v>15317.116701000001</v>
       </c>
       <c r="G10" s="1">
-        <v>4.254755</v>
+        <v>4.2547550000000003</v>
       </c>
       <c r="H10" s="1">
-        <v>918.013000</v>
+        <v>918.01300000000003</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.680000</v>
+        <v>-165.68</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>15327.602617</v>
       </c>
       <c r="L10" s="1">
-        <v>4.257667</v>
+        <v>4.2576669999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>940.173000</v>
+        <v>940.173</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.331000</v>
+        <v>-118.331</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>15338.113834</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.260587</v>
+        <v>4.2605870000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>946.110000</v>
+        <v>946.11</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.095000</v>
+        <v>-103.095</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>15348.639900</v>
+        <v>15348.6399</v>
       </c>
       <c r="V10" s="1">
-        <v>4.263511</v>
+        <v>4.2635110000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>952.373000</v>
+        <v>952.37300000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.483400</v>
+        <v>-89.483400000000003</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>15359.226014</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.266452</v>
+        <v>4.2664520000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.451000</v>
+        <v>959.45100000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.305600</v>
+        <v>-80.305599999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>15369.693088</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.269359</v>
+        <v>4.2693589999999997</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.253000</v>
+        <v>964.25300000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.025700</v>
+        <v>-80.025700000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>15380.086788</v>
+        <v>15380.086788000001</v>
       </c>
       <c r="AK10" s="1">
         <v>4.272246</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.184000</v>
+        <v>972.18399999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.078500</v>
+        <v>-88.078500000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>15390.762819</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.275212</v>
+        <v>4.2752119999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>981.442000</v>
+        <v>981.44200000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.256000</v>
+        <v>-103.256</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>15401.836327</v>
+        <v>15401.836327000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.278288</v>
+        <v>4.2782879999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>992.908000</v>
+        <v>992.90800000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.106000</v>
+        <v>-125.10599999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>15412.967543</v>
+        <v>15412.967543000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.281380</v>
+        <v>4.2813800000000004</v>
       </c>
       <c r="BA10" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB10" s="1">
-        <v>-144.084000</v>
+        <v>-144.084</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>15424.280794</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.284522</v>
+        <v>4.2845219999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.220000</v>
+        <v>1048.22</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.801000</v>
+        <v>-229.80099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>15435.122347</v>
@@ -2717,270 +3133,270 @@
         <v>4.287534</v>
       </c>
       <c r="BK10" s="1">
-        <v>1128.190000</v>
+        <v>1128.19</v>
       </c>
       <c r="BL10" s="1">
-        <v>-367.465000</v>
+        <v>-367.46499999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>15446.163788</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.290601</v>
+        <v>4.2906009999999997</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.630000</v>
+        <v>1260.6300000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.493000</v>
+        <v>-580.49300000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>15456.568861</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.293491</v>
+        <v>4.2934910000000004</v>
       </c>
       <c r="BU10" s="1">
-        <v>1409.400000</v>
+        <v>1409.4</v>
       </c>
       <c r="BV10" s="1">
-        <v>-808.345000</v>
+        <v>-808.34500000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>15467.349903</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.296486</v>
+        <v>4.2964859999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1573.640000</v>
+        <v>1573.64</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1046.040000</v>
+        <v>-1046.04</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>15479.539087</v>
+        <v>15479.539086999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.299872</v>
+        <v>4.2998719999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>1990.160000</v>
+        <v>1990.16</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1601.690000</v>
+        <v>-1601.69</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>15307.030515</v>
       </c>
       <c r="B11" s="1">
-        <v>4.251953</v>
+        <v>4.2519530000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>901.297000</v>
+        <v>901.29700000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.239000</v>
+        <v>-196.239</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>15317.460918</v>
+        <v>15317.460918000001</v>
       </c>
       <c r="G11" s="1">
-        <v>4.254850</v>
+        <v>4.2548500000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>918.176000</v>
+        <v>918.17600000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.484000</v>
+        <v>-165.48400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>15327.951767</v>
       </c>
       <c r="L11" s="1">
-        <v>4.257764</v>
+        <v>4.2577639999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>939.785000</v>
+        <v>939.78499999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.293000</v>
+        <v>-118.29300000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>15338.537881</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.260705</v>
+        <v>4.2607049999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>946.075000</v>
+        <v>946.07500000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.114000</v>
+        <v>-103.114</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>15349.056081</v>
+        <v>15349.056081000001</v>
       </c>
       <c r="V11" s="1">
-        <v>4.263627</v>
+        <v>4.2636269999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>952.349000</v>
+        <v>952.34900000000005</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.483700</v>
+        <v>-89.483699999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>15359.506286</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.266530</v>
+        <v>4.2665300000000004</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.247000</v>
+        <v>959.24699999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.368800</v>
+        <v>-80.368799999999993</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>15370.018960</v>
+        <v>15370.018959999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.269450</v>
+        <v>4.26945</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.298000</v>
+        <v>964.298</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.060400</v>
+        <v>-80.060400000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>15380.435970</v>
+        <v>15380.43597</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.272343</v>
+        <v>4.2723430000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.193000</v>
+        <v>972.19299999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.101800</v>
+        <v>-88.101799999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>15391.122774</v>
+        <v>15391.122773999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.275312</v>
+        <v>4.2753119999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>981.436000</v>
+        <v>981.43600000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.271000</v>
+        <v>-103.271</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>15402.528245</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.278480</v>
+        <v>4.2784800000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>992.896000</v>
+        <v>992.89599999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.093000</v>
+        <v>-125.093</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>15413.680791</v>
+        <v>15413.680791000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.281578</v>
+        <v>4.2815779999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB11" s="1">
-        <v>-144.077000</v>
+        <v>-144.077</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>15424.657288</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.284627</v>
+        <v>4.2846270000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.200000</v>
+        <v>1048.2</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.794000</v>
+        <v>-229.79400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>15435.500793</v>
+        <v>15435.500792999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.287639</v>
+        <v>4.2876390000000004</v>
       </c>
       <c r="BK11" s="1">
-        <v>1128.190000</v>
+        <v>1128.19</v>
       </c>
       <c r="BL11" s="1">
-        <v>-367.433000</v>
+        <v>-367.43299999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>15446.584428</v>
@@ -2989,13 +3405,13 @@
         <v>4.290718</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.620000</v>
+        <v>1260.6199999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.494000</v>
+        <v>-580.49400000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>15457.312366</v>
@@ -3004,75 +3420,75 @@
         <v>4.293698</v>
       </c>
       <c r="BU11" s="1">
-        <v>1409.450000</v>
+        <v>1409.45</v>
       </c>
       <c r="BV11" s="1">
-        <v>-808.163000</v>
+        <v>-808.16300000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>15468.142014</v>
+        <v>15468.142013999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.296706</v>
+        <v>4.2967060000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1573.710000</v>
+        <v>1573.71</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1046.310000</v>
+        <v>-1046.31</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>15479.769728</v>
+        <v>15479.769727999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.299936</v>
+        <v>4.2999359999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1989.920000</v>
+        <v>1989.92</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1602.130000</v>
+        <v>-1602.13</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>15307.372258</v>
+        <v>15307.372257999999</v>
       </c>
       <c r="B12" s="1">
-        <v>4.252048</v>
+        <v>4.2520480000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>901.173000</v>
+        <v>901.173</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.174000</v>
+        <v>-196.17400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>15317.805605</v>
       </c>
       <c r="G12" s="1">
-        <v>4.254946</v>
+        <v>4.2549460000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>918.403000</v>
+        <v>918.40300000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.855000</v>
+        <v>-165.85499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>15328.364948</v>
@@ -3081,13 +3497,13 @@
         <v>4.257879</v>
       </c>
       <c r="M12" s="1">
-        <v>939.785000</v>
+        <v>939.78499999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.226000</v>
+        <v>-118.226</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>15338.818121</v>
@@ -3096,300 +3512,300 @@
         <v>4.260783</v>
       </c>
       <c r="R12" s="1">
-        <v>946.141000</v>
+        <v>946.14099999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.102000</v>
+        <v>-103.102</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>15349.353179</v>
       </c>
       <c r="V12" s="1">
-        <v>4.263709</v>
+        <v>4.2637090000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>952.317000</v>
+        <v>952.31700000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.502500</v>
+        <v>-89.502499999999998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>15359.857917</v>
+        <v>15359.857916999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.266627</v>
+        <v>4.2666269999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>959.351000</v>
+        <v>959.351</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.465200</v>
+        <v>-80.465199999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>15370.361199</v>
+        <v>15370.361199000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.269545</v>
+        <v>4.2695449999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.265000</v>
+        <v>964.26499999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.034400</v>
+        <v>-80.034400000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>15380.784168</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.272440</v>
+        <v>4.2724399999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.191000</v>
+        <v>972.19100000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.066200</v>
+        <v>-88.066199999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>15391.849379</v>
+        <v>15391.849378999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.275514</v>
+        <v>4.2755140000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>981.428000</v>
+        <v>981.428</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.283000</v>
+        <v>-103.283</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>15402.960261</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.278600</v>
+        <v>4.2786</v>
       </c>
       <c r="AV12" s="1">
-        <v>992.899000</v>
+        <v>992.899</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.114000</v>
+        <v>-125.114</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>15414.042870</v>
+        <v>15414.042869999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.281679</v>
+        <v>4.2816789999999996</v>
       </c>
       <c r="BA12" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB12" s="1">
-        <v>-144.098000</v>
+        <v>-144.09800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>15425.018343</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.284727</v>
+        <v>4.2847270000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.210000</v>
+        <v>1048.21</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.833000</v>
+        <v>-229.833</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>15436.187752</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.287830</v>
+        <v>4.2878299999999996</v>
       </c>
       <c r="BK12" s="1">
-        <v>1128.170000</v>
+        <v>1128.17</v>
       </c>
       <c r="BL12" s="1">
-        <v>-367.416000</v>
+        <v>-367.416</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>15447.292186</v>
+        <v>15447.292186000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.290914</v>
+        <v>4.2909139999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.471000</v>
+        <v>-580.471</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>15457.427436</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.293730</v>
+        <v>4.29373</v>
       </c>
       <c r="BU12" s="1">
-        <v>1409.520000</v>
+        <v>1409.52</v>
       </c>
       <c r="BV12" s="1">
-        <v>-808.054000</v>
+        <v>-808.05399999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>15468.252622</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.296737</v>
+        <v>4.2967370000000003</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1573.680000</v>
+        <v>1573.68</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1046.210000</v>
+        <v>-1046.21</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>15480.289069</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.300080</v>
+        <v>4.3000800000000003</v>
       </c>
       <c r="CE12" s="1">
-        <v>1990.190000</v>
+        <v>1990.19</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1600.530000</v>
+        <v>-1600.53</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>15307.797331</v>
       </c>
       <c r="B13" s="1">
-        <v>4.252166</v>
+        <v>4.2521659999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>901.209000</v>
+        <v>901.20899999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.042000</v>
+        <v>-196.042</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>15318.226708</v>
       </c>
       <c r="G13" s="1">
-        <v>4.255063</v>
+        <v>4.2550629999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>918.447000</v>
+        <v>918.447</v>
       </c>
       <c r="I13" s="1">
-        <v>-164.787000</v>
+        <v>-164.78700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>15328.655590</v>
+        <v>15328.65559</v>
       </c>
       <c r="L13" s="1">
-        <v>4.257960</v>
+        <v>4.2579599999999997</v>
       </c>
       <c r="M13" s="1">
-        <v>939.867000</v>
+        <v>939.86699999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.255000</v>
+        <v>-118.255</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>15339.165849</v>
+        <v>15339.165849000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.260879</v>
+        <v>4.2608790000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>946.139000</v>
+        <v>946.13900000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.107000</v>
+        <v>-103.107</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>15349.700381</v>
+        <v>15349.700381000001</v>
       </c>
       <c r="V13" s="1">
-        <v>4.263806</v>
+        <v>4.2638059999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>952.350000</v>
+        <v>952.35</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.530100</v>
+        <v>-89.530100000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>15360.206109</v>
+        <v>15360.206109000001</v>
       </c>
       <c r="AA13" s="1">
         <v>4.266724</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.291000</v>
+        <v>959.29100000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.341400</v>
+        <v>-80.341399999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>15371.047945</v>
@@ -3398,13 +3814,13 @@
         <v>4.269736</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.252000</v>
+        <v>964.25199999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.047000</v>
+        <v>-80.046999999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>15381.482001</v>
@@ -3413,315 +3829,315 @@
         <v>4.272634</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.184000</v>
+        <v>972.18399999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.068000</v>
+        <v>-88.067999999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>15392.226338</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.275618</v>
+        <v>4.2756179999999997</v>
       </c>
       <c r="AQ13" s="1">
-        <v>981.413000</v>
+        <v>981.41300000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.271000</v>
+        <v>-103.271</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>15403.319396</v>
+        <v>15403.319396000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.278700</v>
+        <v>4.2786999999999997</v>
       </c>
       <c r="AV13" s="1">
-        <v>992.904000</v>
+        <v>992.904</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.121000</v>
+        <v>-125.121</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>15414.398005</v>
+        <v>15414.398004999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.281777</v>
+        <v>4.2817769999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1002.580000</v>
+        <v>1002.58</v>
       </c>
       <c r="BB13" s="1">
-        <v>-144.069000</v>
+        <v>-144.06899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>15425.692406</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.284915</v>
+        <v>4.2849149999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.210000</v>
+        <v>1048.21</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.832000</v>
+        <v>-229.83199999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>15436.658758</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.287961</v>
+        <v>4.2879610000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1128.210000</v>
+        <v>1128.21</v>
       </c>
       <c r="BL13" s="1">
-        <v>-367.434000</v>
+        <v>-367.43400000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>15447.398826</v>
+        <v>15447.398826000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.290944</v>
+        <v>4.2909439999999996</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.492000</v>
+        <v>-580.49199999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>15457.866396</v>
+        <v>15457.866395999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.293852</v>
+        <v>4.2938520000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1409.660000</v>
+        <v>1409.66</v>
       </c>
       <c r="BV13" s="1">
-        <v>-808.055000</v>
+        <v>-808.05499999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>15468.671741</v>
       </c>
       <c r="BY13" s="1">
-        <v>4.296853</v>
+        <v>4.2968529999999996</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1573.710000</v>
+        <v>1573.71</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1046.260000</v>
+        <v>-1046.26</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>15480.808845</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.300225</v>
+        <v>4.3002250000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1988.550000</v>
+        <v>1988.55</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1600.440000</v>
+        <v>-1600.44</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>15308.074130</v>
+        <v>15308.074130000001</v>
       </c>
       <c r="B14" s="1">
         <v>4.252243</v>
       </c>
       <c r="C14" s="1">
-        <v>901.070000</v>
+        <v>901.07</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.231000</v>
+        <v>-196.23099999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>15318.503478</v>
+        <v>15318.503478000001</v>
       </c>
       <c r="G14" s="1">
-        <v>4.255140</v>
+        <v>4.2551399999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>918.261000</v>
+        <v>918.26099999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.786000</v>
+        <v>-165.786</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>15328.998822</v>
       </c>
       <c r="L14" s="1">
-        <v>4.258055</v>
+        <v>4.2580549999999997</v>
       </c>
       <c r="M14" s="1">
-        <v>939.651000</v>
+        <v>939.65099999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.412000</v>
+        <v>-118.41200000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>15339.515496</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.260977</v>
+        <v>4.2609769999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>946.152000</v>
+        <v>946.15200000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.122000</v>
+        <v>-103.122</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>15350.039610</v>
+        <v>15350.03961</v>
       </c>
       <c r="V14" s="1">
-        <v>4.263900</v>
+        <v>4.2638999999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>952.408000</v>
+        <v>952.40800000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.534900</v>
+        <v>-89.534899999999993</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>15360.904476</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.266918</v>
+        <v>4.2669180000000004</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.386000</v>
+        <v>959.38599999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.245200</v>
+        <v>-80.245199999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>15371.390398</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.269831</v>
+        <v>4.2698309999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.326000</v>
+        <v>964.32600000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.051500</v>
+        <v>-80.051500000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>15381.829698</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.272730</v>
+        <v>4.2727300000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.196000</v>
+        <v>972.19600000000003</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.083600</v>
+        <v>-88.083600000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>15392.586466</v>
+        <v>15392.586466000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.275718</v>
+        <v>4.2757180000000004</v>
       </c>
       <c r="AQ14" s="1">
-        <v>981.447000</v>
+        <v>981.447</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.273000</v>
+        <v>-103.273</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>15403.995921</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.278888</v>
+        <v>4.2788880000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>992.882000</v>
+        <v>992.88199999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.111000</v>
+        <v>-125.111</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>15415.066612</v>
+        <v>15415.066612000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.281963</v>
+        <v>4.2819630000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB14" s="1">
-        <v>-144.079000</v>
+        <v>-144.07900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>15426.131862</v>
@@ -3730,210 +4146,210 @@
         <v>4.285037</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.220000</v>
+        <v>1048.22</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.844000</v>
+        <v>-229.84399999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>15437.033431</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.288065</v>
+        <v>4.2880649999999996</v>
       </c>
       <c r="BK14" s="1">
-        <v>1128.190000</v>
+        <v>1128.19</v>
       </c>
       <c r="BL14" s="1">
-        <v>-367.463000</v>
+        <v>-367.46300000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>15447.825386</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.291063</v>
+        <v>4.2910630000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.630000</v>
+        <v>1260.6300000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.486000</v>
+        <v>-580.48599999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>15458.279595</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.293967</v>
+        <v>4.2939670000000003</v>
       </c>
       <c r="BU14" s="1">
-        <v>1409.810000</v>
+        <v>1409.81</v>
       </c>
       <c r="BV14" s="1">
-        <v>-808.082000</v>
+        <v>-808.08199999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>15469.085405</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.296968</v>
+        <v>4.2969679999999997</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1573.840000</v>
+        <v>1573.84</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1046.180000</v>
+        <v>-1046.18</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>15481.325181</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.300368</v>
+        <v>4.3003679999999997</v>
       </c>
       <c r="CE14" s="1">
-        <v>1988.870000</v>
+        <v>1988.87</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1601.990000</v>
+        <v>-1601.99</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>15308.413362</v>
+        <v>15308.413361999999</v>
       </c>
       <c r="B15" s="1">
-        <v>4.252337</v>
+        <v>4.2523369999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>901.313000</v>
+        <v>901.31299999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.174000</v>
+        <v>-196.17400000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>15318.845256</v>
+        <v>15318.845256000001</v>
       </c>
       <c r="G15" s="1">
-        <v>4.255235</v>
+        <v>4.2552349999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>918.366000</v>
+        <v>918.36599999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.688000</v>
+        <v>-165.68799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>15329.343542</v>
+        <v>15329.343542000001</v>
       </c>
       <c r="L15" s="1">
-        <v>4.258151</v>
+        <v>4.2581509999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>940.009000</v>
+        <v>940.00900000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.366000</v>
+        <v>-118.366</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>15340.209408</v>
+        <v>15340.209408000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.261169</v>
+        <v>4.2611689999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>946.133000</v>
+        <v>946.13300000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.124000</v>
+        <v>-103.124</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>15350.726073</v>
       </c>
       <c r="V15" s="1">
-        <v>4.264091</v>
+        <v>4.2640909999999996</v>
       </c>
       <c r="W15" s="1">
-        <v>952.355000</v>
+        <v>952.35500000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.553200</v>
+        <v>-89.553200000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>15361.252172</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.267014</v>
+        <v>4.2670139999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>959.311000</v>
+        <v>959.31100000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.262800</v>
+        <v>-80.262799999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>15371.735117</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.269926</v>
+        <v>4.2699259999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.270000</v>
+        <v>964.27</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.022800</v>
+        <v>-80.022800000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>15382.178912</v>
+        <v>15382.178911999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.272827</v>
+        <v>4.2728270000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.208000</v>
+        <v>972.20799999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.078200</v>
+        <v>-88.078199999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>15393.262526</v>
@@ -3942,225 +4358,225 @@
         <v>4.275906</v>
       </c>
       <c r="AQ15" s="1">
-        <v>981.409000</v>
+        <v>981.40899999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.274000</v>
+        <v>-103.274</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>15404.452722</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.279015</v>
+        <v>4.2790150000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>992.889000</v>
+        <v>992.88900000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.122000</v>
+        <v>-125.122</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>15415.475813</v>
+        <v>15415.475812999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.282077</v>
+        <v>4.2820770000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1002.570000</v>
+        <v>1002.57</v>
       </c>
       <c r="BB15" s="1">
-        <v>-144.081000</v>
+        <v>-144.08099999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>15426.496917</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.285138</v>
+        <v>4.2851379999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.200000</v>
+        <v>1048.2</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.834000</v>
+        <v>-229.834</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>15437.416343</v>
+        <v>15437.416343000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.288171</v>
+        <v>4.2881710000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1128.170000</v>
+        <v>1128.17</v>
       </c>
       <c r="BL15" s="1">
-        <v>-367.431000</v>
+        <v>-367.43099999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>15448.221722</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.291173</v>
+        <v>4.2911729999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.640000</v>
+        <v>1260.6400000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.507000</v>
+        <v>-580.50699999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>15458.711114</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.294086</v>
+        <v>4.2940860000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1410.030000</v>
+        <v>1410.03</v>
       </c>
       <c r="BV15" s="1">
-        <v>-808.121000</v>
+        <v>-808.12099999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>15469.539751</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.297094</v>
+        <v>4.2970940000000004</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1573.620000</v>
+        <v>1573.62</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1046.350000</v>
+        <v>-1046.3499999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>15481.844491</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.300512</v>
+        <v>4.3005120000000003</v>
       </c>
       <c r="CE15" s="1">
-        <v>1990.510000</v>
+        <v>1990.51</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1601.530000</v>
+        <v>-1601.53</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>15308.755600</v>
+        <v>15308.7556</v>
       </c>
       <c r="B16" s="1">
-        <v>4.252432</v>
+        <v>4.2524319999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>901.460000</v>
+        <v>901.46</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.115000</v>
+        <v>-196.11500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>15319.535651</v>
       </c>
       <c r="G16" s="1">
-        <v>4.255427</v>
+        <v>4.2554270000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>918.497000</v>
+        <v>918.49699999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.462000</v>
+        <v>-165.46199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>15330.037978</v>
       </c>
       <c r="L16" s="1">
-        <v>4.258344</v>
+        <v>4.2583440000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>939.822000</v>
+        <v>939.822</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.301000</v>
+        <v>-118.301</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>15340.561559</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.261267</v>
+        <v>4.2612670000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>946.097000</v>
+        <v>946.09699999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.109000</v>
+        <v>-103.10899999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>15351.070793</v>
+        <v>15351.070793000001</v>
       </c>
       <c r="V16" s="1">
-        <v>4.264186</v>
+        <v>4.2641859999999996</v>
       </c>
       <c r="W16" s="1">
-        <v>952.394000</v>
+        <v>952.39400000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.531100</v>
+        <v>-89.531099999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>15361.600396</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.267111</v>
+        <v>4.2671109999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.433000</v>
+        <v>959.43299999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.240500</v>
+        <v>-80.240499999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>15372.398766</v>
@@ -4169,255 +4585,255 @@
         <v>4.270111</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.273000</v>
+        <v>964.27300000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.046800</v>
+        <v>-80.046800000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>15382.831155</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.273009</v>
+        <v>4.2730090000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.190000</v>
+        <v>972.19</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.071600</v>
+        <v>-88.071600000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>15393.669735</v>
+        <v>15393.669734999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.276019</v>
+        <v>4.2760189999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>981.416000</v>
+        <v>981.41600000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.277000</v>
+        <v>-103.277</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>15404.813315</v>
+        <v>15404.813314999999</v>
       </c>
       <c r="AU16" s="1">
         <v>4.279115</v>
       </c>
       <c r="AV16" s="1">
-        <v>992.905000</v>
+        <v>992.90499999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.123000</v>
+        <v>-125.123</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>15415.865667</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.282185</v>
+        <v>4.2821850000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB16" s="1">
-        <v>-144.081000</v>
+        <v>-144.08099999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>15426.858500</v>
+        <v>15426.8585</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.285238</v>
+        <v>4.2852379999999997</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.200000</v>
+        <v>1048.2</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.808000</v>
+        <v>-229.80799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>15437.833974</v>
+        <v>15437.833973999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.288287</v>
+        <v>4.2882870000000004</v>
       </c>
       <c r="BK16" s="1">
-        <v>1128.190000</v>
+        <v>1128.19</v>
       </c>
       <c r="BL16" s="1">
-        <v>-367.457000</v>
+        <v>-367.45699999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>15448.646760</v>
+        <v>15448.64676</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.291291</v>
+        <v>4.2912910000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.600000</v>
+        <v>1260.5999999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.487000</v>
+        <v>-580.48699999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>15459.137642</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.294205</v>
+        <v>4.2942049999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1409.960000</v>
+        <v>1409.96</v>
       </c>
       <c r="BV16" s="1">
-        <v>-808.298000</v>
+        <v>-808.298</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>15469.989116</v>
+        <v>15469.989116000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.297219</v>
+        <v>4.2972190000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1573.650000</v>
+        <v>1573.65</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1046.220000</v>
+        <v>-1046.22</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>15482.361323</v>
+        <v>15482.361322999999</v>
       </c>
       <c r="CD16" s="1">
         <v>4.300656</v>
       </c>
       <c r="CE16" s="1">
-        <v>1989.970000</v>
+        <v>1989.97</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1599.960000</v>
+        <v>-1599.96</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>15309.438624</v>
       </c>
       <c r="B17" s="1">
-        <v>4.252622</v>
+        <v>4.2526219999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>901.304000</v>
+        <v>901.30399999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.121000</v>
+        <v>-196.12100000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>15319.877431</v>
+        <v>15319.877431000001</v>
       </c>
       <c r="G17" s="1">
         <v>4.255522</v>
       </c>
       <c r="H17" s="1">
-        <v>918.032000</v>
+        <v>918.03200000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.331000</v>
+        <v>-166.33099999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>15330.383156</v>
       </c>
       <c r="L17" s="1">
-        <v>4.258440</v>
+        <v>4.2584400000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>939.774000</v>
+        <v>939.774</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.293000</v>
+        <v>-118.29300000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>15340.910246</v>
+        <v>15340.910245999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.261364</v>
+        <v>4.2613640000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>946.094000</v>
+        <v>946.09400000000005</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.089000</v>
+        <v>-103.089</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>15351.417992</v>
+        <v>15351.417992000001</v>
       </c>
       <c r="V17" s="1">
-        <v>4.264283</v>
+        <v>4.2642829999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>952.397000</v>
+        <v>952.39700000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.585500</v>
+        <v>-89.585499999999996</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>15362.258586</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.267294</v>
+        <v>4.2672939999999997</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.378000</v>
+        <v>959.37800000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.253700</v>
+        <v>-80.253699999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>15372.765309</v>
@@ -4426,390 +4842,390 @@
         <v>4.270213</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.259000</v>
+        <v>964.25900000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.962700</v>
+        <v>-79.962699999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>15383.224480</v>
+        <v>15383.224480000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.273118</v>
+        <v>4.2731180000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.173000</v>
+        <v>972.173</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.073300</v>
+        <v>-88.073300000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>15394.052149</v>
+        <v>15394.052148999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.276126</v>
+        <v>4.2761259999999996</v>
       </c>
       <c r="AQ17" s="1">
-        <v>981.443000</v>
+        <v>981.44299999999998</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.287000</v>
+        <v>-103.28700000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>15405.179363</v>
+        <v>15405.179362999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.279216</v>
+        <v>4.2792159999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>992.900000</v>
+        <v>992.9</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.113000</v>
+        <v>-125.113</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>15416.221832</v>
+        <v>15416.221831999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.282284</v>
+        <v>4.2822839999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB17" s="1">
-        <v>-144.082000</v>
+        <v>-144.08199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>15427.282084</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.285356</v>
+        <v>4.2853560000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.200000</v>
+        <v>1048.2</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.810000</v>
+        <v>-229.81</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>15438.183687</v>
+        <v>15438.183687000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.288384</v>
+        <v>4.2883839999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1128.180000</v>
+        <v>1128.18</v>
       </c>
       <c r="BL17" s="1">
-        <v>-367.453000</v>
+        <v>-367.45299999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>15449.040898</v>
+        <v>15449.040897999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.291400</v>
+        <v>4.2914000000000003</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.522000</v>
+        <v>-580.52200000000005</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>15459.549818</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.294319</v>
+        <v>4.2943189999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1410.070000</v>
+        <v>1410.07</v>
       </c>
       <c r="BV17" s="1">
-        <v>-808.517000</v>
+        <v>-808.51700000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>15470.407771</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.297335</v>
+        <v>4.2973350000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1573.770000</v>
+        <v>1573.77</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1046.160000</v>
+        <v>-1046.1600000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>15482.880643</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.300800</v>
+        <v>4.3007999999999997</v>
       </c>
       <c r="CE17" s="1">
-        <v>1990.220000</v>
+        <v>1990.22</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1600.460000</v>
+        <v>-1600.46</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>15309.781855</v>
+        <v>15309.781854999999</v>
       </c>
       <c r="B18" s="1">
-        <v>4.252717</v>
+        <v>4.2527169999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>901.222000</v>
+        <v>901.22199999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.238000</v>
+        <v>-196.238</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>15320.223601</v>
       </c>
       <c r="G18" s="1">
-        <v>4.255618</v>
+        <v>4.2556180000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>918.092000</v>
+        <v>918.09199999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.457000</v>
+        <v>-165.45699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>15330.726422</v>
       </c>
       <c r="L18" s="1">
-        <v>4.258535</v>
+        <v>4.2585350000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>939.859000</v>
+        <v>939.85900000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.318000</v>
+        <v>-118.318</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>15341.576374</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.261549</v>
+        <v>4.2615489999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>946.133000</v>
+        <v>946.13300000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.078000</v>
+        <v>-103.078</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>15352.099496</v>
+        <v>15352.099496000001</v>
       </c>
       <c r="V18" s="1">
-        <v>4.264472</v>
+        <v>4.2644719999999996</v>
       </c>
       <c r="W18" s="1">
-        <v>952.276000</v>
+        <v>952.27599999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.487000</v>
+        <v>-89.486999999999995</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>15362.647418</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.267402</v>
+        <v>4.2674019999999997</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.344000</v>
+        <v>959.34400000000005</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.250400</v>
+        <v>-80.250399999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>15373.097720</v>
+        <v>15373.09772</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.270305</v>
+        <v>4.2703049999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.282000</v>
+        <v>964.28200000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.039500</v>
+        <v>-80.039500000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>15383.572142</v>
+        <v>15383.572142000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.273214</v>
+        <v>4.2732140000000003</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.193000</v>
+        <v>972.19299999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.092000</v>
+        <v>-88.091999999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>15394.414192</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.276226</v>
+        <v>4.2762260000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>981.443000</v>
+        <v>981.44299999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.288000</v>
+        <v>-103.288</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>15405.605424</v>
+        <v>15405.605423999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.279335</v>
+        <v>4.2793349999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>992.880000</v>
+        <v>992.88</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.117000</v>
+        <v>-125.117</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>15416.648850</v>
+        <v>15416.64885</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.282402</v>
+        <v>4.2824020000000003</v>
       </c>
       <c r="BA18" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB18" s="1">
-        <v>-144.087000</v>
+        <v>-144.08699999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>15427.581172</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.285439</v>
+        <v>4.2854390000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.220000</v>
+        <v>1048.22</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.795000</v>
+        <v>-229.79499999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>15438.558529</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.288488</v>
+        <v>4.2884880000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1128.170000</v>
+        <v>1128.17</v>
       </c>
       <c r="BL18" s="1">
-        <v>-367.443000</v>
+        <v>-367.44299999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>15449.460727</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.291517</v>
+        <v>4.2915169999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.550000</v>
+        <v>1260.55</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.540000</v>
+        <v>-580.54</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>15459.978361</v>
+        <v>15459.978360999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.294438</v>
+        <v>4.2944380000000004</v>
       </c>
       <c r="BU18" s="1">
-        <v>1409.910000</v>
+        <v>1409.91</v>
       </c>
       <c r="BV18" s="1">
-        <v>-808.631000</v>
+        <v>-808.63099999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>15470.831322</v>
@@ -4818,195 +5234,195 @@
         <v>4.297453</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1573.550000</v>
+        <v>1573.55</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1046.230000</v>
+        <v>-1046.23</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>15483.430699</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.300953</v>
+        <v>4.3009529999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1990.090000</v>
+        <v>1990.09</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1601.890000</v>
+        <v>-1601.89</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>15310.126544</v>
+        <v>15310.126544000001</v>
       </c>
       <c r="B19" s="1">
-        <v>4.252813</v>
+        <v>4.2528129999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>901.141000</v>
+        <v>901.14099999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.263000</v>
+        <v>-196.26300000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>15320.871872</v>
       </c>
       <c r="G19" s="1">
-        <v>4.255798</v>
+        <v>4.2557980000000004</v>
       </c>
       <c r="H19" s="1">
-        <v>917.983000</v>
+        <v>917.98299999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.364000</v>
+        <v>-165.364</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>15331.381135</v>
       </c>
       <c r="L19" s="1">
-        <v>4.258717</v>
+        <v>4.2587169999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>939.718000</v>
+        <v>939.71799999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.314000</v>
+        <v>-118.31399999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>15341.958292</v>
+        <v>15341.958291999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.261655</v>
+        <v>4.2616550000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>946.182000</v>
+        <v>946.18200000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.131000</v>
+        <v>-103.131</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>15352.455162</v>
       </c>
       <c r="V19" s="1">
-        <v>4.264571</v>
+        <v>4.2645710000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>952.287000</v>
+        <v>952.28700000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.531800</v>
+        <v>-89.531800000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>15362.996602</v>
+        <v>15362.996601999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.267499</v>
+        <v>4.2674989999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.451000</v>
+        <v>959.45100000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.244100</v>
+        <v>-80.244100000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>15373.452267</v>
+        <v>15373.452267000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.270403</v>
+        <v>4.2704029999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.245000</v>
+        <v>964.245</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.043300</v>
+        <v>-80.043300000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>15383.921822</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.273312</v>
+        <v>4.2733119999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.188000</v>
+        <v>972.18799999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.075500</v>
+        <v>-88.075500000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>15394.846703</v>
+        <v>15394.846702999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.276346</v>
+        <v>4.2763460000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>981.451000</v>
+        <v>981.45100000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.274000</v>
+        <v>-103.274</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>15405.908512</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.279419</v>
+        <v>4.2794189999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>992.904000</v>
+        <v>992.904</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.119000</v>
+        <v>-125.119</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>15416.940002</v>
+        <v>15416.940001999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>4.282483</v>
       </c>
       <c r="BA19" s="1">
-        <v>1002.570000</v>
+        <v>1002.57</v>
       </c>
       <c r="BB19" s="1">
-        <v>-144.088000</v>
+        <v>-144.08799999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>15427.940771</v>
@@ -5015,91 +5431,91 @@
         <v>4.285539</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.210000</v>
+        <v>1048.21</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.807000</v>
+        <v>-229.80699999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>15438.935092</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.288593</v>
+        <v>4.2885929999999997</v>
       </c>
       <c r="BK19" s="1">
-        <v>1128.190000</v>
+        <v>1128.19</v>
       </c>
       <c r="BL19" s="1">
-        <v>-367.454000</v>
+        <v>-367.45400000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>15449.860006</v>
+        <v>15449.860006000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.291628</v>
+        <v>4.2916280000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.491000</v>
+        <v>-580.49099999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>15460.408424</v>
+        <v>15460.408423999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.294558</v>
+        <v>4.2945580000000003</v>
       </c>
       <c r="BU19" s="1">
-        <v>1409.750000</v>
+        <v>1409.75</v>
       </c>
       <c r="BV19" s="1">
-        <v>-808.695000</v>
+        <v>-808.69500000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>15471.258875</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.297572</v>
+        <v>4.2975719999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1573.810000</v>
+        <v>1573.81</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1046.190000</v>
+        <v>-1046.19</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>15483.960462</v>
+        <v>15483.960461999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.301100</v>
+        <v>4.3010999999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1989.990000</v>
+        <v>1989.99</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1600.190000</v>
+        <v>-1600.19</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>15310.773358</v>
       </c>
@@ -5107,1027 +5523,1027 @@
         <v>4.252993</v>
       </c>
       <c r="C20" s="1">
-        <v>901.210000</v>
+        <v>901.21</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.367000</v>
+        <v>-196.36699999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>15321.257264</v>
       </c>
       <c r="G20" s="1">
-        <v>4.255905</v>
+        <v>4.2559050000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>918.515000</v>
+        <v>918.51499999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.378000</v>
+        <v>-165.37799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>15331.766994</v>
       </c>
       <c r="L20" s="1">
-        <v>4.258824</v>
+        <v>4.2588239999999997</v>
       </c>
       <c r="M20" s="1">
-        <v>939.863000</v>
+        <v>939.86300000000006</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.494000</v>
+        <v>-118.494</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>15342.304533</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.261751</v>
+        <v>4.2617510000000003</v>
       </c>
       <c r="R20" s="1">
-        <v>946.131000</v>
+        <v>946.13099999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.132000</v>
+        <v>-103.13200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>15352.803319</v>
+        <v>15352.803319000001</v>
       </c>
       <c r="V20" s="1">
-        <v>4.264668</v>
+        <v>4.2646680000000003</v>
       </c>
       <c r="W20" s="1">
-        <v>952.327000</v>
+        <v>952.327</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.459700</v>
+        <v>-89.459699999999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>15363.344792</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.267596</v>
+        <v>4.2675960000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.399000</v>
+        <v>959.399</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.250200</v>
+        <v>-80.250200000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>15373.892220</v>
+        <v>15373.89222</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.270526</v>
+        <v>4.2705260000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.265000</v>
+        <v>964.26499999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.069700</v>
+        <v>-80.069699999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>15384.343917</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.273429</v>
+        <v>4.2734290000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.178000</v>
+        <v>972.178</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.087800</v>
+        <v>-88.087800000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>15395.131904</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.276426</v>
+        <v>4.2764259999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>981.416000</v>
+        <v>981.41600000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.300000</v>
+        <v>-103.3</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>15406.277510</v>
+        <v>15406.27751</v>
       </c>
       <c r="AU20" s="1">
         <v>4.279522</v>
       </c>
       <c r="AV20" s="1">
-        <v>992.905000</v>
+        <v>992.90499999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.119000</v>
+        <v>-125.119</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>15417.299601</v>
+        <v>15417.299601000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.282583</v>
+        <v>4.2825829999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1002.580000</v>
+        <v>1002.58</v>
       </c>
       <c r="BB20" s="1">
-        <v>-144.079000</v>
+        <v>-144.07900000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>15428.302851</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.285640</v>
+        <v>4.2856399999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.220000</v>
+        <v>1048.22</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.806000</v>
+        <v>-229.80600000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>15439.705876</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.288807</v>
+        <v>4.2888070000000003</v>
       </c>
       <c r="BK20" s="1">
-        <v>1128.190000</v>
+        <v>1128.19</v>
       </c>
       <c r="BL20" s="1">
-        <v>-367.463000</v>
+        <v>-367.46300000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>15450.290999</v>
+        <v>15450.290999000001</v>
       </c>
       <c r="BO20" s="1">
         <v>4.291747</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.517000</v>
+        <v>-580.51700000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>15460.821064</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.294673</v>
+        <v>4.2946730000000004</v>
       </c>
       <c r="BU20" s="1">
-        <v>1409.600000</v>
+        <v>1409.6</v>
       </c>
       <c r="BV20" s="1">
-        <v>-808.746000</v>
+        <v>-808.74599999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>15471.675050</v>
+        <v>15471.67505</v>
       </c>
       <c r="BY20" s="1">
         <v>4.297688</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1573.770000</v>
+        <v>1573.77</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1046.120000</v>
+        <v>-1046.1199999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>15484.584431</v>
+        <v>15484.584430999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.301273</v>
+        <v>4.3012730000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1988.210000</v>
+        <v>1988.21</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1600.400000</v>
+        <v>-1600.4</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>15311.146846</v>
       </c>
       <c r="B21" s="1">
-        <v>4.253096</v>
+        <v>4.2530960000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>901.274000</v>
+        <v>901.274</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.128000</v>
+        <v>-196.12799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>15321.605456</v>
+        <v>15321.605455999999</v>
       </c>
       <c r="G21" s="1">
-        <v>4.256002</v>
+        <v>4.2560019999999996</v>
       </c>
       <c r="H21" s="1">
-        <v>918.414000</v>
+        <v>918.41399999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.462000</v>
+        <v>-165.46199999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>15332.108739</v>
+        <v>15332.108738999999</v>
       </c>
       <c r="L21" s="1">
-        <v>4.258919</v>
+        <v>4.2589189999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>939.871000</v>
+        <v>939.87099999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.114000</v>
+        <v>-118.114</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>15342.653219</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.261848</v>
+        <v>4.2618479999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>946.116000</v>
+        <v>946.11599999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.127000</v>
+        <v>-103.127</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>15353.226902</v>
       </c>
       <c r="V21" s="1">
-        <v>4.264785</v>
+        <v>4.2647849999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>952.272000</v>
+        <v>952.27200000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.506000</v>
+        <v>-89.506</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>15363.770360</v>
+        <v>15363.77036</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.267714</v>
+        <v>4.2677139999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.489000</v>
+        <v>959.48900000000003</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.297200</v>
+        <v>-80.297200000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>15374.163531</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.270601</v>
+        <v>4.2706010000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.262000</v>
+        <v>964.26199999999994</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.039400</v>
+        <v>-80.039400000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>15384.634077</v>
+        <v>15384.634077000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.273509</v>
+        <v>4.2735089999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.197000</v>
+        <v>972.197</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.060800</v>
+        <v>-88.0608</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>15395.490511</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.276525</v>
+        <v>4.2765250000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>981.438000</v>
+        <v>981.43799999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.294000</v>
+        <v>-103.294</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>15406.639087</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.279622</v>
+        <v>4.2796219999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>992.896000</v>
+        <v>992.89599999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.090000</v>
+        <v>-125.09</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>15417.662673</v>
+        <v>15417.662673000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.282684</v>
+        <v>4.2826839999999997</v>
       </c>
       <c r="BA21" s="1">
-        <v>1002.580000</v>
+        <v>1002.58</v>
       </c>
       <c r="BB21" s="1">
-        <v>-144.071000</v>
+        <v>-144.071</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>15429.024529</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.285840</v>
+        <v>4.2858400000000003</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.210000</v>
+        <v>1048.21</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.819000</v>
+        <v>-229.81899999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>15440.081844</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.288912</v>
+        <v>4.2889119999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1128.180000</v>
+        <v>1128.18</v>
       </c>
       <c r="BL21" s="1">
-        <v>-367.455000</v>
+        <v>-367.45499999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>15450.677879</v>
+        <v>15450.677879000001</v>
       </c>
       <c r="BO21" s="1">
         <v>4.291855</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.506000</v>
+        <v>-580.50599999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>15461.247623</v>
+        <v>15461.247622999999</v>
       </c>
       <c r="BT21" s="1">
         <v>4.294791</v>
       </c>
       <c r="BU21" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="BV21" s="1">
-        <v>-808.696000</v>
+        <v>-808.69600000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>15472.439014</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.297900</v>
+        <v>4.2979000000000003</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1573.700000</v>
+        <v>1573.7</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1046.250000</v>
+        <v>-1046.25</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>15485.023849</v>
+        <v>15485.023848999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.301396</v>
+        <v>4.3013960000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>1988.470000</v>
+        <v>1988.47</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1602.050000</v>
+        <v>-1602.05</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>15311.490572</v>
+        <v>15311.490572000001</v>
       </c>
       <c r="B22" s="1">
-        <v>4.253192</v>
+        <v>4.2531920000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>901.246000</v>
+        <v>901.24599999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.232000</v>
+        <v>-196.232</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>15321.946704</v>
       </c>
       <c r="G22" s="1">
-        <v>4.256096</v>
+        <v>4.2560960000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>918.269000</v>
+        <v>918.26900000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.575000</v>
+        <v>-165.57499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>15332.454947</v>
       </c>
       <c r="L22" s="1">
-        <v>4.259015</v>
+        <v>4.2590149999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>939.742000</v>
+        <v>939.74199999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.326000</v>
+        <v>-118.32599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>15343.082723</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.261967</v>
+        <v>4.2619670000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>946.090000</v>
+        <v>946.09</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.101000</v>
+        <v>-103.101</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>15353.508172</v>
       </c>
       <c r="V22" s="1">
-        <v>4.264863</v>
+        <v>4.2648630000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>952.337000</v>
+        <v>952.33699999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.608800</v>
+        <v>-89.608800000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>15364.049112</v>
+        <v>15364.049112000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.267791</v>
+        <v>4.2677909999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.372000</v>
+        <v>959.37199999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.262700</v>
+        <v>-80.262699999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>15374.508287</v>
+        <v>15374.508287000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.270697</v>
+        <v>4.2706970000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.269000</v>
+        <v>964.26900000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.039200</v>
+        <v>-80.039199999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>15384.983297</v>
+        <v>15384.983297000001</v>
       </c>
       <c r="AK22" s="1">
         <v>4.273606</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.187000</v>
+        <v>972.18700000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.084500</v>
+        <v>-88.084500000000006</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>15395.850632</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.276625</v>
+        <v>4.2766250000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>981.418000</v>
+        <v>981.41800000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.274000</v>
+        <v>-103.274</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>15407.367216</v>
+        <v>15407.367216000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.279824</v>
+        <v>4.2798239999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>992.902000</v>
+        <v>992.90200000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.096000</v>
+        <v>-125.096</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>15418.383396</v>
+        <v>15418.383395999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.282884</v>
+        <v>4.2828840000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1002.580000</v>
+        <v>1002.58</v>
       </c>
       <c r="BB22" s="1">
-        <v>-144.092000</v>
+        <v>-144.09200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>15429.413889</v>
+        <v>15429.413888999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.285948</v>
+        <v>4.2859480000000003</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.200000</v>
+        <v>1048.2</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.817000</v>
+        <v>-229.81700000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>15440.458382</v>
+        <v>15440.458382000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>4.289016</v>
+        <v>4.2890160000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1128.190000</v>
+        <v>1128.19</v>
       </c>
       <c r="BL22" s="1">
-        <v>-367.451000</v>
+        <v>-367.45100000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>15451.095014</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.291971</v>
+        <v>4.2919710000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.482000</v>
+        <v>-580.48199999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>15461.987159</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.294996</v>
+        <v>4.2949960000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1409.370000</v>
+        <v>1409.37</v>
       </c>
       <c r="BV22" s="1">
-        <v>-808.560000</v>
+        <v>-808.56</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>15472.578264</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.297938</v>
+        <v>4.2979380000000003</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1573.770000</v>
+        <v>1573.77</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1046.270000</v>
+        <v>-1046.27</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>15485.513401</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.301532</v>
+        <v>4.3015319999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1988.250000</v>
+        <v>1988.25</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1600.940000</v>
+        <v>-1600.94</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>15311.835759</v>
       </c>
       <c r="B23" s="1">
-        <v>4.253288</v>
+        <v>4.2532880000000004</v>
       </c>
       <c r="C23" s="1">
-        <v>901.272000</v>
+        <v>901.27200000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.181000</v>
+        <v>-196.18100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>15322.372800</v>
+        <v>15322.372799999999</v>
       </c>
       <c r="G23" s="1">
-        <v>4.256215</v>
+        <v>4.2562150000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>918.130000</v>
+        <v>918.13</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.958000</v>
+        <v>-164.958</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>15332.878529</v>
       </c>
       <c r="L23" s="1">
-        <v>4.259133</v>
+        <v>4.2591330000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>940.039000</v>
+        <v>940.03899999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.391000</v>
+        <v>-118.39100000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>15343.359491</v>
+        <v>15343.359490999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.262044</v>
+        <v>4.2620440000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>946.082000</v>
+        <v>946.08199999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.078000</v>
+        <v>-103.078</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>15353.851366</v>
+        <v>15353.851366000001</v>
       </c>
       <c r="V23" s="1">
-        <v>4.264959</v>
+        <v>4.2649590000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>952.291000</v>
+        <v>952.29100000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.590200</v>
+        <v>-89.590199999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>15364.397801</v>
+        <v>15364.397800999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.267888</v>
+        <v>4.2678880000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.390000</v>
+        <v>959.39</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.314200</v>
+        <v>-80.3142</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>15374.852505</v>
+        <v>15374.852505000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.270792</v>
+        <v>4.2707920000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.292000</v>
+        <v>964.29200000000003</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.036700</v>
+        <v>-80.036699999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>15385.655340</v>
+        <v>15385.655339999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.273793</v>
+        <v>4.2737930000000004</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.183000</v>
+        <v>972.18299999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.063200</v>
+        <v>-88.063199999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>15396.569806</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.276825</v>
+        <v>4.2768249999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>981.415000</v>
+        <v>981.41499999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.287000</v>
+        <v>-103.28700000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>15407.762031</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.279934</v>
+        <v>4.2799339999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>992.869000</v>
+        <v>992.86900000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.102000</v>
+        <v>-125.102</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>15418.756847</v>
+        <v>15418.756847000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.282988</v>
+        <v>4.2829879999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB23" s="1">
-        <v>-144.085000</v>
+        <v>-144.08500000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>15429.772993</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.286048</v>
+        <v>4.2860480000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.220000</v>
+        <v>1048.22</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.805000</v>
+        <v>-229.80500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>15441.142786</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.289206</v>
+        <v>4.2892060000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1128.160000</v>
+        <v>1128.1600000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-367.455000</v>
+        <v>-367.45499999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>15451.726951</v>
+        <v>15451.726951000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.292146</v>
+        <v>4.2921459999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.650000</v>
+        <v>1260.6500000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.467000</v>
+        <v>-580.46699999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>15462.125046</v>
+        <v>15462.125045999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.295035</v>
+        <v>4.2950350000000004</v>
       </c>
       <c r="BU23" s="1">
-        <v>1409.370000</v>
+        <v>1409.37</v>
       </c>
       <c r="BV23" s="1">
-        <v>-808.384000</v>
+        <v>-808.38400000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>15472.998871</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.298055</v>
+        <v>4.2980549999999997</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1573.740000</v>
+        <v>1573.74</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1046.250000</v>
+        <v>-1046.25</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>15486.066936</v>
+        <v>15486.066935999999</v>
       </c>
       <c r="CD23" s="1">
         <v>4.301685</v>
       </c>
       <c r="CE23" s="1">
-        <v>1988.930000</v>
+        <v>1988.93</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1599.920000</v>
+        <v>-1599.92</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>15312.261852</v>
       </c>
@@ -6135,193 +6551,193 @@
         <v>4.253406</v>
       </c>
       <c r="C24" s="1">
-        <v>901.330000</v>
+        <v>901.33</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.353000</v>
+        <v>-196.35300000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>15322.653007</v>
+        <v>15322.653007000001</v>
       </c>
       <c r="G24" s="1">
-        <v>4.256293</v>
+        <v>4.2562930000000003</v>
       </c>
       <c r="H24" s="1">
-        <v>918.649000</v>
+        <v>918.649</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.808000</v>
+        <v>-165.80799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>15333.168046</v>
+        <v>15333.168046000001</v>
       </c>
       <c r="L24" s="1">
-        <v>4.259213</v>
+        <v>4.2592129999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>939.737000</v>
+        <v>939.73699999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.382000</v>
+        <v>-118.38200000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>15343.708707</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.262141</v>
+        <v>4.2621409999999997</v>
       </c>
       <c r="R24" s="1">
-        <v>946.120000</v>
+        <v>946.12</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.086000</v>
+        <v>-103.086</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>15354.196084</v>
+        <v>15354.196083999999</v>
       </c>
       <c r="V24" s="1">
-        <v>4.265054</v>
+        <v>4.2650540000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>952.338000</v>
+        <v>952.33799999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.506400</v>
+        <v>-89.506399999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>15364.748999</v>
+        <v>15364.748998999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.267986</v>
+        <v>4.2679859999999996</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.372000</v>
+        <v>959.37199999999996</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.347800</v>
+        <v>-80.347800000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>15375.537944</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.270983</v>
+        <v>4.2709830000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.263000</v>
+        <v>964.26300000000003</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.066500</v>
+        <v>-80.066500000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>15386.024363</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.273896</v>
+        <v>4.2738959999999997</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.187000</v>
+        <v>972.18700000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.078500</v>
+        <v>-88.078500000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>15396.935852</v>
+        <v>15396.935852000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.276927</v>
+        <v>4.2769269999999997</v>
       </c>
       <c r="AQ24" s="1">
-        <v>981.408000</v>
+        <v>981.40800000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.281000</v>
+        <v>-103.28100000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>15408.123157</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.280034</v>
+        <v>4.2800339999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>992.899000</v>
+        <v>992.899</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.113000</v>
+        <v>-125.113</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>15419.443806</v>
+        <v>15419.443805999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.283179</v>
+        <v>4.2831789999999996</v>
       </c>
       <c r="BA24" s="1">
-        <v>1002.580000</v>
+        <v>1002.58</v>
       </c>
       <c r="BB24" s="1">
-        <v>-144.119000</v>
+        <v>-144.119</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>15430.444612</v>
+        <v>15430.444611999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.286235</v>
+        <v>4.2862349999999996</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.220000</v>
+        <v>1048.22</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.838000</v>
+        <v>-229.83799999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>15441.612995</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.289337</v>
+        <v>4.2893369999999997</v>
       </c>
       <c r="BK24" s="1">
-        <v>1128.190000</v>
+        <v>1128.19</v>
       </c>
       <c r="BL24" s="1">
-        <v>-367.496000</v>
+        <v>-367.49599999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>15451.913908</v>
@@ -6330,90 +6746,90 @@
         <v>4.292198</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.590000</v>
+        <v>1260.5899999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.529000</v>
+        <v>-580.529</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>15462.535733</v>
+        <v>15462.535733000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.295149</v>
+        <v>4.2951490000000003</v>
       </c>
       <c r="BU24" s="1">
-        <v>1409.340000</v>
+        <v>1409.34</v>
       </c>
       <c r="BV24" s="1">
-        <v>-808.267000</v>
+        <v>-808.26700000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>15473.422218</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.298173</v>
+        <v>4.2981730000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1573.770000</v>
+        <v>1573.77</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1046.270000</v>
+        <v>-1046.27</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>15486.600135</v>
+        <v>15486.600135000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.301833</v>
+        <v>4.3018330000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>1988.280000</v>
+        <v>1988.28</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1601.520000</v>
+        <v>-1601.52</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>15312.533164</v>
       </c>
       <c r="B25" s="1">
-        <v>4.253481</v>
+        <v>4.2534809999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>901.268000</v>
+        <v>901.26800000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.176000</v>
+        <v>-196.17599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>15322.996238</v>
       </c>
       <c r="G25" s="1">
-        <v>4.256388</v>
+        <v>4.2563880000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>918.348000</v>
+        <v>918.34799999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.397000</v>
+        <v>-165.39699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>15333.512417</v>
@@ -6422,13 +6838,13 @@
         <v>4.259309</v>
       </c>
       <c r="M25" s="1">
-        <v>939.802000</v>
+        <v>939.80200000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.395000</v>
+        <v>-118.395</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>15344.055874</v>
@@ -6437,405 +6853,405 @@
         <v>4.262238</v>
       </c>
       <c r="R25" s="1">
-        <v>946.135000</v>
+        <v>946.13499999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.107000</v>
+        <v>-103.107</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>15354.880102</v>
+        <v>15354.880101999999</v>
       </c>
       <c r="V25" s="1">
         <v>4.265244</v>
       </c>
       <c r="W25" s="1">
-        <v>952.321000</v>
+        <v>952.32100000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.814900</v>
+        <v>-89.814899999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>15365.444383</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.268179</v>
+        <v>4.2681789999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>959.397000</v>
+        <v>959.39700000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.307400</v>
+        <v>-80.307400000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>15375.883656</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.271079</v>
+        <v>4.2710790000000003</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.271000</v>
+        <v>964.27099999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.064700</v>
+        <v>-80.064700000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>15386.377018</v>
+        <v>15386.377017999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.273994</v>
+        <v>4.2739940000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.184000</v>
+        <v>972.18399999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.092400</v>
+        <v>-88.092399999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>15397.295509</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.277027</v>
+        <v>4.2770270000000004</v>
       </c>
       <c r="AQ25" s="1">
-        <v>981.409000</v>
+        <v>981.40899999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.268000</v>
+        <v>-103.268</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>15408.790732</v>
+        <v>15408.790731999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.280220</v>
+        <v>4.2802199999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>992.883000</v>
+        <v>992.88300000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.111000</v>
+        <v>-125.111</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>15419.852047</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.283292</v>
+        <v>4.2832920000000003</v>
       </c>
       <c r="BA25" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB25" s="1">
-        <v>-144.077000</v>
+        <v>-144.077</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>15430.892514</v>
+        <v>15430.892513999999</v>
       </c>
       <c r="BE25" s="1">
         <v>4.286359</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.200000</v>
+        <v>1048.2</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.814000</v>
+        <v>-229.81399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>15442.000370</v>
+        <v>15442.00037</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.289445</v>
+        <v>4.2894449999999997</v>
       </c>
       <c r="BK25" s="1">
-        <v>1128.200000</v>
+        <v>1128.2</v>
       </c>
       <c r="BL25" s="1">
-        <v>-367.463000</v>
+        <v>-367.46300000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>15452.312227</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.292309</v>
+        <v>4.2923090000000004</v>
       </c>
       <c r="BP25" s="1">
-        <v>1260.610000</v>
+        <v>1260.6099999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.496000</v>
+        <v>-580.49599999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>15462.967253</v>
+        <v>15462.967253000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.295269</v>
+        <v>4.2952690000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1409.470000</v>
+        <v>1409.47</v>
       </c>
       <c r="BV25" s="1">
-        <v>-808.106000</v>
+        <v>-808.10599999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>15473.868328</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.298297</v>
+        <v>4.2982969999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1573.720000</v>
+        <v>1573.72</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1046.250000</v>
+        <v>-1046.25</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>15487.115515</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.301977</v>
+        <v>4.3019769999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1989.370000</v>
+        <v>1989.37</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1602.210000</v>
+        <v>-1602.21</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>15312.875371</v>
       </c>
       <c r="B26" s="1">
-        <v>4.253576</v>
+        <v>4.2535759999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>901.164000</v>
+        <v>901.16399999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.268000</v>
+        <v>-196.268</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>15323.343437</v>
       </c>
       <c r="G26" s="1">
-        <v>4.256484</v>
+        <v>4.2564840000000004</v>
       </c>
       <c r="H26" s="1">
-        <v>918.453000</v>
+        <v>918.45299999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.801000</v>
+        <v>-165.80099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>15333.858656</v>
       </c>
       <c r="L26" s="1">
-        <v>4.259405</v>
+        <v>4.2594050000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>939.969000</v>
+        <v>939.96900000000005</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.337000</v>
+        <v>-118.337</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>15344.753281</v>
+        <v>15344.753280999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.262431</v>
+        <v>4.2624310000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>946.128000</v>
+        <v>946.12800000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.125000</v>
+        <v>-103.125</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>15355.225317</v>
       </c>
       <c r="V26" s="1">
-        <v>4.265340</v>
+        <v>4.2653400000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>952.309000</v>
+        <v>952.30899999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.826400</v>
+        <v>-89.826400000000007</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>15365.793541</v>
+        <v>15365.793540999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.268276</v>
+        <v>4.2682760000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.402000</v>
+        <v>959.40200000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.243500</v>
+        <v>-80.243499999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>15376.226889</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.271174</v>
+        <v>4.2711740000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.299000</v>
+        <v>964.29899999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.041500</v>
+        <v>-80.041499999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>15387.032731</v>
+        <v>15387.032730999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.274176</v>
+        <v>4.2741759999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.192000</v>
+        <v>972.19200000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.058100</v>
+        <v>-88.058099999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>15397.965083</v>
+        <v>15397.965082999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.277213</v>
+        <v>4.2772129999999997</v>
       </c>
       <c r="AQ26" s="1">
-        <v>981.430000</v>
+        <v>981.43</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.302000</v>
+        <v>-103.30200000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>15409.250524</v>
+        <v>15409.250523999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.280347</v>
+        <v>4.2803469999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>992.865000</v>
+        <v>992.86500000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.091000</v>
+        <v>-125.09099999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>15420.210267</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.283392</v>
+        <v>4.2833920000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB26" s="1">
-        <v>-144.106000</v>
+        <v>-144.10599999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>15431.255535</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.286460</v>
+        <v>4.2864599999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.200000</v>
+        <v>1048.2</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.817000</v>
+        <v>-229.81700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>15442.376833</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.289549</v>
+        <v>4.2895490000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1128.190000</v>
+        <v>1128.19</v>
       </c>
       <c r="BL26" s="1">
-        <v>-367.454000</v>
+        <v>-367.45400000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>15452.736771</v>
@@ -6844,60 +7260,61 @@
         <v>4.292427</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.620000</v>
+        <v>1260.6199999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.521000</v>
+        <v>-580.52099999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>15463.381926</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.295384</v>
+        <v>4.2953840000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>1409.650000</v>
+        <v>1409.65</v>
       </c>
       <c r="BV26" s="1">
-        <v>-808.057000</v>
+        <v>-808.05700000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>15474.293430</v>
+        <v>15474.29343</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.298415</v>
+        <v>4.2984150000000003</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1573.820000</v>
+        <v>1573.82</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1046.220000</v>
+        <v>-1046.22</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>15487.631317</v>
+        <v>15487.631316999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.302120</v>
+        <v>4.3021200000000004</v>
       </c>
       <c r="CE26" s="1">
-        <v>1990.130000</v>
+        <v>1990.13</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1601.100000</v>
+        <v>-1601.1</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>